--- a/test.xlsx
+++ b/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">guillermo </t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>30/06/1980</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>C:\workspace\EtoM\test.xlsx</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>C:\workspace\EtoM\.gitignore</t>
+  </si>
+  <si>
+    <t>C:\workspace\EtoM\package.json</t>
+  </si>
+  <si>
+    <t>C:\workspace\EtoM\tsconfig.json</t>
+  </si>
+  <si>
+    <t>attachment2</t>
   </si>
 </sst>
 </file>
@@ -108,8 +138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,52 +439,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="1">
+        <v>31455</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>43438</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
+        <v>32874</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -465,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
